--- a/German_Tales/Data/German_tales_JR.xlsx
+++ b/German_Tales/Data/German_tales_JR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/DWA/German_Tales/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AA65FD-7D24-B64E-B2E2-5991C4ECA086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939A5FEB-951D-B949-B788-E1F4828AB84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -6377,15 +6377,6 @@
     <t>Der Chilter.</t>
   </si>
   <si>
-    <t>Kuhreihen (Gattung von Hirtenliedern) zum Aufzug auf die Alm im Frühling</t>
-  </si>
-  <si>
-    <t>Kuhreihen (Gattung von Hirtenliedern) zur Abfahrt von der Alm im Herbst</t>
-  </si>
-  <si>
-    <t>Küher-Leben (Berufsgattung der Alpwirtschaft)</t>
-  </si>
-  <si>
     <t>Kiltgänger, Freier, der sein Mädchen nächtlich besucht.</t>
   </si>
   <si>
@@ -6450,6 +6441,15 @@
   </si>
   <si>
     <t>Was heimelig [ist]</t>
+  </si>
+  <si>
+    <t>Kuhreihen {Gattung von Hirtenliedern} zum Aufzug auf die Alm im Frühling</t>
+  </si>
+  <si>
+    <t>Küher-Leben {Berufsgattung der Alpwirtschaft}</t>
+  </si>
+  <si>
+    <t>Kuhreihen {Gattung von Hirtenliedern} zur Abfahrt von der Alm im Herbst</t>
   </si>
 </sst>
 </file>
@@ -6485,7 +6485,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6528,12 +6528,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -6547,7 +6541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -6562,9 +6556,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6865,7 +6858,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R1142" sqref="R1142"/>
+      <selection pane="bottomLeft" activeCell="R1130" sqref="R1130:R1132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -53875,7 +53868,7 @@
       <c r="M1112" s="11" t="s">
         <v>1564</v>
       </c>
-      <c r="N1112" s="12" t="s">
+      <c r="N1112" t="s">
         <v>2067</v>
       </c>
       <c r="O1112" s="5" t="s">
@@ -53931,7 +53924,7 @@
       <c r="M1113" s="11" t="s">
         <v>1564</v>
       </c>
-      <c r="N1113" s="12" t="s">
+      <c r="N1113" t="s">
         <v>2067</v>
       </c>
       <c r="O1113" s="5" t="s">
@@ -53991,7 +53984,7 @@
       <c r="M1114" s="11" t="s">
         <v>1564</v>
       </c>
-      <c r="N1114" s="12" t="s">
+      <c r="N1114" t="s">
         <v>2067</v>
       </c>
       <c r="O1114" s="5" t="s">
@@ -54050,7 +54043,7 @@
       <c r="M1115" s="11" t="s">
         <v>1564</v>
       </c>
-      <c r="N1115" s="12" t="s">
+      <c r="N1115" t="s">
         <v>2067</v>
       </c>
       <c r="O1115" s="5" t="s">
@@ -54109,7 +54102,7 @@
       <c r="M1116" s="11" t="s">
         <v>1564</v>
       </c>
-      <c r="N1116" s="12" t="s">
+      <c r="N1116" t="s">
         <v>2067</v>
       </c>
       <c r="O1116" s="5" t="s">
@@ -54168,7 +54161,7 @@
       <c r="M1117" s="11" t="s">
         <v>1564</v>
       </c>
-      <c r="N1117" s="12" t="s">
+      <c r="N1117" t="s">
         <v>2067</v>
       </c>
       <c r="O1117" s="5" t="s">
@@ -54227,7 +54220,7 @@
       <c r="M1118" s="11" t="s">
         <v>1564</v>
       </c>
-      <c r="N1118" s="12" t="s">
+      <c r="N1118" t="s">
         <v>2067</v>
       </c>
       <c r="O1118" s="5" t="s">
@@ -54286,7 +54279,7 @@
       <c r="M1119" s="11" t="s">
         <v>1564</v>
       </c>
-      <c r="N1119" s="12" t="s">
+      <c r="N1119" t="s">
         <v>2067</v>
       </c>
       <c r="O1119" s="5" t="s">
@@ -54345,7 +54338,7 @@
       <c r="M1120" s="11" t="s">
         <v>1564</v>
       </c>
-      <c r="N1120" s="12" t="s">
+      <c r="N1120" t="s">
         <v>2067</v>
       </c>
       <c r="O1120" s="5" t="s">
@@ -54404,7 +54397,7 @@
       <c r="M1121" t="s">
         <v>1566</v>
       </c>
-      <c r="N1121" s="12" t="s">
+      <c r="N1121" t="s">
         <v>12</v>
       </c>
       <c r="O1121" s="5" t="s">
@@ -54413,13 +54406,13 @@
       <c r="P1121" s="5" t="s">
         <v>2087</v>
       </c>
-      <c r="Q1121" s="12" t="s">
+      <c r="Q1121" t="s">
         <v>2089</v>
       </c>
-      <c r="R1121" s="12" t="s">
+      <c r="R1121" t="s">
         <v>2092</v>
       </c>
-      <c r="S1121" s="12" t="s">
+      <c r="S1121" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -54460,7 +54453,7 @@
       <c r="M1122" t="s">
         <v>1566</v>
       </c>
-      <c r="N1122" s="12" t="s">
+      <c r="N1122" t="s">
         <v>12</v>
       </c>
       <c r="O1122" s="5" t="s">
@@ -54469,13 +54462,13 @@
       <c r="P1122" s="5" t="s">
         <v>2087</v>
       </c>
-      <c r="Q1122" s="12" t="s">
+      <c r="Q1122" t="s">
         <v>2090</v>
       </c>
-      <c r="R1122" s="12" t="s">
+      <c r="R1122" t="s">
         <v>2091</v>
       </c>
-      <c r="S1122" s="12" t="s">
+      <c r="S1122" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -54516,7 +54509,7 @@
       <c r="M1123" t="s">
         <v>1566</v>
       </c>
-      <c r="N1123" s="12" t="s">
+      <c r="N1123" t="s">
         <v>12</v>
       </c>
       <c r="O1123" s="5" t="s">
@@ -54525,13 +54518,13 @@
       <c r="P1123" s="5" t="s">
         <v>2087</v>
       </c>
-      <c r="Q1123" s="12" t="s">
+      <c r="Q1123" t="s">
         <v>2093</v>
       </c>
-      <c r="R1123" s="12" t="s">
+      <c r="R1123" t="s">
         <v>2094</v>
       </c>
-      <c r="S1123" s="12" t="s">
+      <c r="S1123" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -54575,7 +54568,7 @@
       <c r="M1124" t="s">
         <v>1569</v>
       </c>
-      <c r="N1124" s="12" t="s">
+      <c r="N1124" t="s">
         <v>1889</v>
       </c>
       <c r="O1124" s="5" t="s">
@@ -54584,13 +54577,13 @@
       <c r="P1124" s="5" t="s">
         <v>2095</v>
       </c>
-      <c r="Q1124" s="13" t="s">
+      <c r="Q1124" s="12" t="s">
         <v>2097</v>
       </c>
-      <c r="R1124" s="12" t="s">
+      <c r="R1124" t="s">
         <v>2098</v>
       </c>
-      <c r="S1124" s="12" t="s">
+      <c r="S1124" t="s">
         <v>2043</v>
       </c>
     </row>
@@ -54631,7 +54624,7 @@
       <c r="M1125" t="s">
         <v>1569</v>
       </c>
-      <c r="N1125" s="12" t="s">
+      <c r="N1125" t="s">
         <v>1889</v>
       </c>
       <c r="O1125" s="5" t="s">
@@ -54640,13 +54633,13 @@
       <c r="P1125" s="5" t="s">
         <v>2095</v>
       </c>
-      <c r="Q1125" s="12" t="s">
+      <c r="Q1125" t="s">
         <v>2099</v>
       </c>
-      <c r="R1125" s="12" t="s">
+      <c r="R1125" t="s">
         <v>2100</v>
       </c>
-      <c r="S1125" s="12" t="s">
+      <c r="S1125" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -54687,7 +54680,7 @@
       <c r="M1126" t="s">
         <v>1569</v>
       </c>
-      <c r="N1126" s="12" t="s">
+      <c r="N1126" t="s">
         <v>1889</v>
       </c>
       <c r="O1126" s="5" t="s">
@@ -54696,13 +54689,13 @@
       <c r="P1126" s="5" t="s">
         <v>2095</v>
       </c>
-      <c r="Q1126" s="12" t="s">
+      <c r="Q1126" t="s">
         <v>2101</v>
       </c>
-      <c r="R1126" s="12" t="s">
+      <c r="R1126" t="s">
         <v>2102</v>
       </c>
-      <c r="S1126" s="12" t="s">
+      <c r="S1126" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -54743,7 +54736,7 @@
       <c r="M1127" t="s">
         <v>1572</v>
       </c>
-      <c r="N1127" s="12" t="s">
+      <c r="N1127" t="s">
         <v>1889</v>
       </c>
       <c r="O1127" s="5" t="s">
@@ -54752,13 +54745,13 @@
       <c r="P1127" s="5" t="s">
         <v>2104</v>
       </c>
-      <c r="Q1127" s="12" t="s">
+      <c r="Q1127" t="s">
         <v>2105</v>
       </c>
-      <c r="R1127" s="12" t="s">
+      <c r="R1127" t="s">
         <v>2106</v>
       </c>
-      <c r="S1127" s="12" t="s">
+      <c r="S1127" t="s">
         <v>2043</v>
       </c>
     </row>
@@ -54799,7 +54792,7 @@
       <c r="M1128" t="s">
         <v>1574</v>
       </c>
-      <c r="N1128" s="12" t="s">
+      <c r="N1128" t="s">
         <v>12</v>
       </c>
       <c r="O1128" s="5" t="s">
@@ -54808,13 +54801,13 @@
       <c r="P1128" s="5" t="s">
         <v>2108</v>
       </c>
-      <c r="Q1128" s="12" t="s">
-        <v>2136</v>
-      </c>
-      <c r="R1128" s="12" t="s">
+      <c r="Q1128" t="s">
+        <v>2133</v>
+      </c>
+      <c r="R1128" t="s">
         <v>2109</v>
       </c>
-      <c r="S1128" s="12" t="s">
+      <c r="S1128" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -54855,7 +54848,7 @@
       <c r="M1129" t="s">
         <v>1574</v>
       </c>
-      <c r="N1129" s="12" t="s">
+      <c r="N1129" t="s">
         <v>12</v>
       </c>
       <c r="O1129" s="5" t="s">
@@ -54864,13 +54857,13 @@
       <c r="P1129" s="5" t="s">
         <v>2108</v>
       </c>
-      <c r="Q1129" s="12" t="s">
-        <v>2137</v>
-      </c>
-      <c r="R1129" s="12" t="s">
-        <v>2138</v>
-      </c>
-      <c r="S1129" s="12" t="s">
+      <c r="Q1129" t="s">
+        <v>2134</v>
+      </c>
+      <c r="R1129" t="s">
+        <v>2135</v>
+      </c>
+      <c r="S1129" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -54911,7 +54904,7 @@
       <c r="M1130" t="s">
         <v>1574</v>
       </c>
-      <c r="N1130" s="12" t="s">
+      <c r="N1130" t="s">
         <v>12</v>
       </c>
       <c r="O1130" s="5" t="s">
@@ -54920,13 +54913,13 @@
       <c r="P1130" s="5" t="s">
         <v>2108</v>
       </c>
-      <c r="Q1130" s="12" t="s">
+      <c r="Q1130" t="s">
         <v>2110</v>
       </c>
-      <c r="R1130" s="14" t="s">
-        <v>2114</v>
-      </c>
-      <c r="S1130" s="12" t="s">
+      <c r="R1130" s="13" t="s">
+        <v>2136</v>
+      </c>
+      <c r="S1130" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -54967,7 +54960,7 @@
       <c r="M1131" t="s">
         <v>1574</v>
       </c>
-      <c r="N1131" s="12" t="s">
+      <c r="N1131" t="s">
         <v>12</v>
       </c>
       <c r="O1131" s="5" t="s">
@@ -54976,13 +54969,13 @@
       <c r="P1131" s="5" t="s">
         <v>2108</v>
       </c>
-      <c r="Q1131" s="12" t="s">
+      <c r="Q1131" t="s">
         <v>2111</v>
       </c>
-      <c r="R1131" s="14" t="s">
-        <v>2116</v>
-      </c>
-      <c r="S1131" s="12" t="s">
+      <c r="R1131" s="13" t="s">
+        <v>2137</v>
+      </c>
+      <c r="S1131" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -55023,7 +55016,7 @@
       <c r="M1132" t="s">
         <v>1574</v>
       </c>
-      <c r="N1132" s="12" t="s">
+      <c r="N1132" t="s">
         <v>12</v>
       </c>
       <c r="O1132" s="5" t="s">
@@ -55032,13 +55025,13 @@
       <c r="P1132" s="5" t="s">
         <v>2108</v>
       </c>
-      <c r="Q1132" s="12" t="s">
+      <c r="Q1132" t="s">
         <v>2112</v>
       </c>
-      <c r="R1132" s="14" t="s">
-        <v>2115</v>
-      </c>
-      <c r="S1132" s="12" t="s">
+      <c r="R1132" s="13" t="s">
+        <v>2138</v>
+      </c>
+      <c r="S1132" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -55079,7 +55072,7 @@
       <c r="M1133" t="s">
         <v>1574</v>
       </c>
-      <c r="N1133" s="12" t="s">
+      <c r="N1133" t="s">
         <v>12</v>
       </c>
       <c r="O1133" s="5" t="s">
@@ -55088,13 +55081,13 @@
       <c r="P1133" s="5" t="s">
         <v>2108</v>
       </c>
-      <c r="Q1133" s="12" t="s">
+      <c r="Q1133" t="s">
         <v>2113</v>
       </c>
-      <c r="R1133" s="12" t="s">
-        <v>2117</v>
-      </c>
-      <c r="S1133" s="12" t="s">
+      <c r="R1133" t="s">
+        <v>2114</v>
+      </c>
+      <c r="S1133" t="s">
         <v>1985</v>
       </c>
     </row>
@@ -55135,7 +55128,7 @@
       <c r="M1134" t="s">
         <v>1574</v>
       </c>
-      <c r="N1134" s="12" t="s">
+      <c r="N1134" t="s">
         <v>12</v>
       </c>
       <c r="O1134" s="5" t="s">
@@ -55144,13 +55137,13 @@
       <c r="P1134" s="5" t="s">
         <v>2108</v>
       </c>
-      <c r="Q1134" s="12" t="s">
-        <v>2118</v>
-      </c>
-      <c r="R1134" s="12" t="s">
-        <v>2119</v>
-      </c>
-      <c r="S1134" s="12" t="s">
+      <c r="Q1134" t="s">
+        <v>2115</v>
+      </c>
+      <c r="R1134" t="s">
+        <v>2116</v>
+      </c>
+      <c r="S1134" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -55191,7 +55184,7 @@
       <c r="M1135" t="s">
         <v>1574</v>
       </c>
-      <c r="N1135" s="12" t="s">
+      <c r="N1135" t="s">
         <v>12</v>
       </c>
       <c r="O1135" s="5" t="s">
@@ -55200,13 +55193,13 @@
       <c r="P1135" s="5" t="s">
         <v>2108</v>
       </c>
-      <c r="Q1135" s="12" t="s">
-        <v>2120</v>
-      </c>
-      <c r="R1135" s="12" t="s">
-        <v>2121</v>
-      </c>
-      <c r="S1135" s="12" t="s">
+      <c r="Q1135" t="s">
+        <v>2117</v>
+      </c>
+      <c r="R1135" t="s">
+        <v>2118</v>
+      </c>
+      <c r="S1135" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -55247,7 +55240,7 @@
       <c r="M1136" t="s">
         <v>1574</v>
       </c>
-      <c r="N1136" s="12" t="s">
+      <c r="N1136" t="s">
         <v>12</v>
       </c>
       <c r="O1136" s="5" t="s">
@@ -55256,13 +55249,13 @@
       <c r="P1136" s="5" t="s">
         <v>2108</v>
       </c>
-      <c r="Q1136" s="13" t="s">
-        <v>2122</v>
-      </c>
-      <c r="R1136" s="12" t="s">
-        <v>2127</v>
-      </c>
-      <c r="S1136" s="12" t="s">
+      <c r="Q1136" s="12" t="s">
+        <v>2119</v>
+      </c>
+      <c r="R1136" t="s">
+        <v>2124</v>
+      </c>
+      <c r="S1136" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -55303,7 +55296,7 @@
       <c r="M1137" t="s">
         <v>1574</v>
       </c>
-      <c r="N1137" s="12" t="s">
+      <c r="N1137" t="s">
         <v>12</v>
       </c>
       <c r="O1137" s="5" t="s">
@@ -55312,13 +55305,13 @@
       <c r="P1137" s="5" t="s">
         <v>2108</v>
       </c>
-      <c r="Q1137" s="12" t="s">
-        <v>2123</v>
-      </c>
-      <c r="R1137" s="12" t="s">
-        <v>2124</v>
-      </c>
-      <c r="S1137" s="12" t="s">
+      <c r="Q1137" t="s">
+        <v>2120</v>
+      </c>
+      <c r="R1137" t="s">
+        <v>2121</v>
+      </c>
+      <c r="S1137" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -55359,7 +55352,7 @@
       <c r="M1138" t="s">
         <v>1574</v>
       </c>
-      <c r="N1138" s="12" t="s">
+      <c r="N1138" t="s">
         <v>12</v>
       </c>
       <c r="O1138" s="5" t="s">
@@ -55368,13 +55361,13 @@
       <c r="P1138" s="5" t="s">
         <v>2108</v>
       </c>
-      <c r="Q1138" s="12" t="s">
-        <v>2125</v>
-      </c>
-      <c r="R1138" s="12" t="s">
-        <v>2126</v>
-      </c>
-      <c r="S1138" s="12" t="s">
+      <c r="Q1138" t="s">
+        <v>2122</v>
+      </c>
+      <c r="R1138" t="s">
+        <v>2123</v>
+      </c>
+      <c r="S1138" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -55415,7 +55408,7 @@
       <c r="M1139" t="s">
         <v>1574</v>
       </c>
-      <c r="N1139" s="12" t="s">
+      <c r="N1139" t="s">
         <v>12</v>
       </c>
       <c r="O1139" s="5" t="s">
@@ -55424,13 +55417,13 @@
       <c r="P1139" s="5" t="s">
         <v>2108</v>
       </c>
-      <c r="Q1139" s="12" t="s">
-        <v>2128</v>
-      </c>
-      <c r="R1139" s="12" t="s">
-        <v>2129</v>
-      </c>
-      <c r="S1139" s="12" t="s">
+      <c r="Q1139" t="s">
+        <v>2125</v>
+      </c>
+      <c r="R1139" t="s">
+        <v>2126</v>
+      </c>
+      <c r="S1139" t="s">
         <v>1985</v>
       </c>
     </row>
@@ -55471,7 +55464,7 @@
       <c r="M1140" t="s">
         <v>1574</v>
       </c>
-      <c r="N1140" s="12" t="s">
+      <c r="N1140" t="s">
         <v>12</v>
       </c>
       <c r="O1140" s="5" t="s">
@@ -55480,13 +55473,13 @@
       <c r="P1140" s="5" t="s">
         <v>2108</v>
       </c>
-      <c r="Q1140" s="12" t="s">
-        <v>2130</v>
-      </c>
-      <c r="R1140" s="12" t="s">
-        <v>2131</v>
-      </c>
-      <c r="S1140" s="12" t="s">
+      <c r="Q1140" t="s">
+        <v>2127</v>
+      </c>
+      <c r="R1140" t="s">
+        <v>2128</v>
+      </c>
+      <c r="S1140" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -55527,7 +55520,7 @@
       <c r="M1141" t="s">
         <v>1574</v>
       </c>
-      <c r="N1141" s="12" t="s">
+      <c r="N1141" t="s">
         <v>12</v>
       </c>
       <c r="O1141" s="5" t="s">
@@ -55536,13 +55529,13 @@
       <c r="P1141" s="5" t="s">
         <v>2108</v>
       </c>
-      <c r="Q1141" s="12" t="s">
-        <v>2132</v>
-      </c>
-      <c r="R1141" s="12" t="s">
-        <v>2133</v>
-      </c>
-      <c r="S1141" s="12" t="s">
+      <c r="Q1141" t="s">
+        <v>2129</v>
+      </c>
+      <c r="R1141" t="s">
+        <v>2130</v>
+      </c>
+      <c r="S1141" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -55583,7 +55576,7 @@
       <c r="M1142" t="s">
         <v>1574</v>
       </c>
-      <c r="N1142" s="12" t="s">
+      <c r="N1142" t="s">
         <v>12</v>
       </c>
       <c r="O1142" s="5" t="s">
@@ -55592,13 +55585,13 @@
       <c r="P1142" s="5" t="s">
         <v>2108</v>
       </c>
-      <c r="Q1142" s="12" t="s">
-        <v>2134</v>
-      </c>
-      <c r="R1142" s="12" t="s">
-        <v>2135</v>
-      </c>
-      <c r="S1142" s="12" t="s">
+      <c r="Q1142" t="s">
+        <v>2131</v>
+      </c>
+      <c r="R1142" t="s">
+        <v>2132</v>
+      </c>
+      <c r="S1142" t="s">
         <v>1887</v>
       </c>
     </row>
